--- a/staging/CRA fy2019.xlsx
+++ b/staging/CRA fy2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_F763D59C4B56C640C0337F5236D583F24C031E9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB353A6-5E59-4567-942C-8DDAB1D8FFB8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="2910" windowWidth="12750" windowHeight="6710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="9" r:id="rId1"/>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5025,7 +5025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -8253,7 +8253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T18" sqref="T17:T18"/>
     </sheetView>
   </sheetViews>
@@ -12857,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
